--- a/CallReport.xlsx
+++ b/CallReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin11\Desktop\PythonProgram\Lib\site-packages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin11\Desktop\PythonProgram\MasterSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47387E0-A871-49CD-89E4-34A0119F29AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{04F8FCA5-0174-4387-9B31-6D7AC1A6BC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1635" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1635" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MFIs_XX.C.Q.YY_PR" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <definedName name="YN">[1]Enumerations!$C$1722:$C$1723</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2058,19 +2059,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FFCCCCCC"/>
@@ -2091,6 +2079,19 @@
       </top>
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2373,11 +2374,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2409,7 +2410,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4117,7 +4118,7 @@
   <dimension ref="A1:AI47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4504,20 +4505,20 @@
         <v>24</v>
       </c>
       <c r="B15" s="16">
-        <v>9889</v>
+        <v>9891</v>
       </c>
       <c r="C15" s="16">
-        <v>9778</v>
+        <v>9780</v>
       </c>
       <c r="D15" s="16">
-        <v>121363457.44</v>
+        <v>121372457.44</v>
       </c>
       <c r="E15" s="16">
-        <v>87199310.430000007</v>
+        <v>87205814.849999994</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16">
-        <v>895961.53</v>
+        <v>883339.66</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="4"/>
@@ -4536,20 +4537,20 @@
         <v>25</v>
       </c>
       <c r="B16" s="16">
-        <v>10073</v>
+        <v>10071</v>
       </c>
       <c r="C16" s="16">
-        <v>10073</v>
+        <v>10071</v>
       </c>
       <c r="D16" s="16">
-        <v>99681976.489999995</v>
+        <v>99672976.489999995</v>
       </c>
       <c r="E16" s="16">
-        <v>69167773.099999994</v>
+        <v>69161268.680000007</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16">
-        <v>867526.76</v>
+        <v>867310.37</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="4"/>
@@ -5025,13 +5026,13 @@
         <v>42</v>
       </c>
       <c r="B33" s="43">
-        <v>103305953.78</v>
+        <v>103282018.17</v>
       </c>
       <c r="C33" s="43">
-        <v>23187329.140000001</v>
+        <v>23186415.329999998</v>
       </c>
       <c r="D33" s="43">
-        <v>72518055.510000005</v>
+        <v>72495033.709999993</v>
       </c>
       <c r="E33" s="43">
         <v>764734.19</v>
@@ -5040,25 +5041,25 @@
         <v>6835834.9400000004</v>
       </c>
       <c r="G33" s="43">
-        <v>4934</v>
+        <v>4933</v>
       </c>
       <c r="H33" s="43">
-        <v>10857</v>
+        <v>10854</v>
       </c>
       <c r="I33" s="43">
-        <v>4924</v>
+        <v>4923</v>
       </c>
       <c r="J33" s="43">
-        <v>10808</v>
+        <v>10805</v>
       </c>
       <c r="K33" s="43">
-        <v>23644435.82</v>
+        <v>23656143.879999999</v>
       </c>
       <c r="L33" s="43">
-        <v>78069812.739999995</v>
+        <v>78046790.939999998</v>
       </c>
       <c r="M33" s="43">
-        <v>307627.51</v>
+        <v>295005.64</v>
       </c>
       <c r="N33" s="43">
         <v>1284077.71</v>
@@ -5070,10 +5071,10 @@
         <v>980386.9</v>
       </c>
       <c r="Q33" s="43">
-        <v>10630072.039999999</v>
+        <v>10629158.23</v>
       </c>
       <c r="R33" s="43">
-        <v>29027716.010000002</v>
+        <v>29015989.109999999</v>
       </c>
       <c r="S33" s="19"/>
       <c r="T33" s="19"/>
@@ -5085,13 +5086,13 @@
         <v>43</v>
       </c>
       <c r="B34" s="43">
-        <v>71858794.870000005</v>
+        <v>71882730.480000004</v>
       </c>
       <c r="C34" s="43">
-        <v>16093657.220000001</v>
+        <v>16094571.029999999</v>
       </c>
       <c r="D34" s="43">
-        <v>52398595.57</v>
+        <v>52421617.369999997</v>
       </c>
       <c r="E34" s="43">
         <v>416854.74</v>
@@ -5100,25 +5101,25 @@
         <v>2949687.34</v>
       </c>
       <c r="G34" s="43">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="H34" s="43">
-        <v>6548</v>
+        <v>6551</v>
       </c>
       <c r="I34" s="43">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="J34" s="43">
-        <v>6504</v>
+        <v>6507</v>
       </c>
       <c r="K34" s="43">
-        <v>16367129.710000001</v>
+        <v>16368259.91</v>
       </c>
       <c r="L34" s="43">
-        <v>54957014.579999998</v>
+        <v>54980036.380000003</v>
       </c>
       <c r="M34" s="43">
-        <v>143382.25</v>
+        <v>143165.85999999999</v>
       </c>
       <c r="N34" s="43">
         <v>391268.33</v>
@@ -5130,10 +5131,10 @@
         <v>761924.42</v>
       </c>
       <c r="Q34" s="43">
-        <v>7314192.7199999997</v>
+        <v>7315106.5300000003</v>
       </c>
       <c r="R34" s="43">
-        <v>20638879.579999998</v>
+        <v>20650606.48</v>
       </c>
       <c r="S34" s="19"/>
       <c r="T34" s="19"/>
@@ -5214,7 +5215,7 @@
       </c>
       <c r="D36" s="44">
         <f t="shared" si="0"/>
-        <v>129172776.89000002</v>
+        <v>129172776.88999999</v>
       </c>
       <c r="E36" s="44">
         <f t="shared" si="0"/>
@@ -5242,7 +5243,7 @@
       </c>
       <c r="K36" s="44">
         <f t="shared" si="0"/>
-        <v>42034102.660000004</v>
+        <v>42046940.920000002</v>
       </c>
       <c r="L36" s="44">
         <f t="shared" si="0"/>
@@ -5250,7 +5251,7 @@
       </c>
       <c r="M36" s="44">
         <f t="shared" si="0"/>
-        <v>512021.38</v>
+        <v>499183.12</v>
       </c>
       <c r="N36" s="44">
         <f t="shared" si="0"/>
@@ -5266,7 +5267,7 @@
       </c>
       <c r="Q36" s="44">
         <f t="shared" si="0"/>
-        <v>19009310.579999998</v>
+        <v>19009310.580000002</v>
       </c>
       <c r="R36" s="44">
         <f t="shared" si="0"/>
@@ -13395,8 +13396,8 @@
     <col min="6" max="6" width="6.5703125" style="78" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="78" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" style="78" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.85546875" style="78" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="78"/>
+    <col min="9" max="9" width="8.85546875" style="78" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -15013,8 +15014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C10:C17"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16328,15 +16329,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -16808,15 +16809,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
